--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D40429B-08AF-413D-8C4C-BD15FA1E36E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE5A5E9-533D-4237-9327-12B744F6506C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="1365" windowWidth="22590" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="4800" windowWidth="22590" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -530,10 +530,18 @@
       <c r="G2" s="4">
         <v>60</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="2"/>
+      <c r="H2" s="5">
+        <v>1.41E-2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2.7311000000000002E-4</v>
+      </c>
+      <c r="J2" s="6">
+        <v>2.35E-2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1.1999999999999999E-3</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE5A5E9-533D-4237-9327-12B744F6506C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BACA4F-7AF4-40E4-8012-C5E9DDADA058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="4800" windowWidth="22590" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="1860" windowWidth="23550" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -565,10 +565,18 @@
       <c r="G3" s="4">
         <v>60</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="2"/>
+      <c r="H3" s="5">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>6.8328E-5</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4.7999999999999996E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BACA4F-7AF4-40E4-8012-C5E9DDADA058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0565C1AD-9FA3-474D-9CFF-A0E9A6906958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1860" windowWidth="23550" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="4230" windowWidth="23550" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -604,13 +604,13 @@
         <v>1.44E-2</v>
       </c>
       <c r="I4" s="2">
-        <v>4.5576999999999998E-4</v>
+        <v>2.9912999999999999E-4</v>
       </c>
       <c r="J4" s="6">
-        <v>2.3699999999999999E-2</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="K4" s="2">
-        <v>1.6999999999999999E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0565C1AD-9FA3-474D-9CFF-A0E9A6906958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2420EBF6-45E5-443D-83E9-D7B941F5600A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="4230" windowWidth="23550" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="6750" windowWidth="24060" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,10 +455,10 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -636,16 +636,16 @@
         <v>60</v>
       </c>
       <c r="H5" s="5">
-        <v>1.24E-2</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="I5" s="2">
-        <v>3.9879E-4</v>
+        <v>2.1992E-4</v>
       </c>
       <c r="J5" s="6">
-        <v>2.41E-2</v>
+        <v>2.12E-2</v>
       </c>
       <c r="K5" s="2">
-        <v>3.0999999999999999E-3</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2420EBF6-45E5-443D-83E9-D7B941F5600A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532D06CF-597A-4246-9125-E5BE75184DDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="6750" windowWidth="24060" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="135" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Model</t>
   </si>
@@ -47,11 +47,6 @@
   </si>
   <si>
     <t>Test MSE</t>
-  </si>
-  <si>
-    <t>Shift [-4, 4]
-flip
-rotate [-0.5, 0.5]</t>
   </si>
   <si>
     <t>VGG19
@@ -72,11 +67,6 @@
 Use border between windows</t>
   </si>
   <si>
-    <t>Shift [-4, 4]
-flip
-rotate [-0.1, 0.1]</t>
-  </si>
-  <si>
     <t>Adjust y according to the random crop
 Grayscale
 Use both window sides, left &amp; right</t>
@@ -88,10 +78,26 @@
 Cut sky and shop</t>
   </si>
   <si>
-    <t>Crop up to 40% height
+    <t>Shift [-4, 4]
+rotate [-0.5, 0.5]</t>
+  </si>
+  <si>
+    <t>Shift [-4, 4]
+rotate [-0.1, 0.1]</t>
+  </si>
+  <si>
+    <t>Crop to left and right windows
+rotate [-0.1, 0.1]</t>
+  </si>
+  <si>
+    <t>Crop 40% height
 Crop to left and right windows
-flip
 rotate [-0.1, 0.1]</t>
+  </si>
+  <si>
+    <t>Crop 40% height
+Crop to left and half of to right windows
+rotate [-1, 1]</t>
   </si>
 </sst>
 </file>
@@ -455,10 +461,10 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -490,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -513,16 +519,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="9">
         <v>1E-4</v>
@@ -548,16 +554,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="9">
         <v>1E-4</v>
@@ -583,16 +589,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="9">
         <v>1E-4</v>
@@ -618,16 +624,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="9">
         <v>1E-4</v>
@@ -653,16 +659,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="9">
         <v>1E-4</v>
@@ -670,44 +676,76 @@
       <c r="G6" s="9">
         <v>60</v>
       </c>
-      <c r="H6" s="5">
-        <v>2.58E-2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="J6" s="6">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="K6" s="2">
-        <v>5.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H6" s="15">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="I6" s="12">
+        <v>3.1007000000000002E-4</v>
+      </c>
+      <c r="J6" s="16">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="G7" s="9">
+        <v>60</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2.4753999999999998E-4</v>
+      </c>
+      <c r="J7" s="11">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="K7" s="7">
+        <v>8.6198999999999998E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="G8" s="9">
+        <v>60</v>
+      </c>
       <c r="H8" s="5"/>
       <c r="I8" s="2"/>
       <c r="J8" s="6"/>

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532D06CF-597A-4246-9125-E5BE75184DDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D794C8-CCB5-4525-8094-E4EE88AE1C5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="135" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="2805" windowWidth="21945" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,10 +461,10 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -606,17 +606,17 @@
       <c r="G4" s="9">
         <v>60</v>
       </c>
-      <c r="H4" s="5">
-        <v>1.44E-2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2.9912999999999999E-4</v>
-      </c>
-      <c r="J4" s="6">
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="K4" s="2">
-        <v>3.2000000000000002E-3</v>
+      <c r="H4" s="10">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2.2248E-4</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K4" s="7">
+        <v>7.4049999999999995E-4</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D794C8-CCB5-4525-8094-E4EE88AE1C5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B40BB3F-413E-4110-86A1-D7F82FCB65C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="2805" windowWidth="21945" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="705" windowWidth="21945" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -592,7 +592,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>12</v>
@@ -627,7 +627,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>13</v>

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B40BB3F-413E-4110-86A1-D7F82FCB65C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CAC00E-899E-479B-9AEF-FBD4F79AA02B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="705" windowWidth="21945" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="270" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>Model</t>
   </si>
@@ -98,6 +98,11 @@
     <t>Crop 40% height
 Crop to left and half of to right windows
 rotate [-1, 1]</t>
+  </si>
+  <si>
+    <t>Crop 40% height
+Crop to left and half of to right windows
+rotate [-0.5, 0.5]</t>
   </si>
 </sst>
 </file>
@@ -461,10 +466,10 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -746,21 +751,41 @@
       <c r="G8" s="9">
         <v>60</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H8" s="10">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J8" s="11">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1.61E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="4"/>
+      <c r="B9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="G9" s="9">
+        <v>60</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="2"/>
       <c r="J9" s="6"/>

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CAC00E-899E-479B-9AEF-FBD4F79AA02B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE697EF2-6FED-4B6D-B688-8ECA11F3DEED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="270" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9915" yWindow="450" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -786,10 +786,18 @@
       <c r="G9" s="9">
         <v>60</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="2"/>
+      <c r="H9" s="5">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3.8636999999999998E-4</v>
+      </c>
+      <c r="J9" s="6">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1.1000000000000001E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="12">

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE697EF2-6FED-4B6D-B688-8ECA11F3DEED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F5E11F-A0C6-4CF4-814C-3A34C9827D7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9915" yWindow="450" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6060" yWindow="645" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Model</t>
   </si>
@@ -64,11 +64,6 @@
   <si>
     <t>Adjust y according to the random crop
 Grayscale
-Use border between windows</t>
-  </si>
-  <si>
-    <t>Adjust y according to the random crop
-Grayscale
 Use both window sides, left &amp; right</t>
   </si>
   <si>
@@ -82,10 +77,6 @@
 rotate [-0.5, 0.5]</t>
   </si>
   <si>
-    <t>Shift [-4, 4]
-rotate [-0.1, 0.1]</t>
-  </si>
-  <si>
     <t>Crop to left and right windows
 rotate [-0.1, 0.1]</t>
   </si>
@@ -103,6 +94,11 @@
     <t>Crop 40% height
 Crop to left and half of to right windows
 rotate [-0.5, 0.5]</t>
+  </si>
+  <si>
+    <t>Crop 75% height
+Crop to left and half of to right windows
+rotate [-0.1, 0.1]</t>
   </si>
 </sst>
 </file>
@@ -466,10 +462,10 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -519,75 +515,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="G2" s="4">
-        <v>60</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1.41E-2</v>
-      </c>
-      <c r="I2" s="2">
-        <v>2.7311000000000002E-4</v>
-      </c>
-      <c r="J2" s="6">
-        <v>2.35E-2</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1E-4</v>
-      </c>
-      <c r="G3" s="4">
-        <v>60</v>
-      </c>
-      <c r="H3" s="5">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>6.8328E-5</v>
-      </c>
-      <c r="J3" s="6">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="K3" s="2">
-        <v>4.7999999999999996E-3</v>
-      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -597,10 +553,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -632,10 +588,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
@@ -667,10 +623,10 @@
         <v>8</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>10</v>
@@ -702,10 +658,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>10</v>
@@ -737,10 +693,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>10</v>
@@ -772,10 +728,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>10</v>
@@ -799,16 +755,28 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="G10" s="9">
+        <v>60</v>
+      </c>
       <c r="H10" s="15"/>
       <c r="I10" s="12"/>
       <c r="J10" s="16"/>

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F5E11F-A0C6-4CF4-814C-3A34C9827D7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7528DC54-46FA-4B5D-A64A-1DD27F1091CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6060" yWindow="645" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>Model</t>
   </si>
@@ -98,6 +98,11 @@
   <si>
     <t>Crop 75% height
 Crop to left and half of to right windows
+rotate [-0.1, 0.1]</t>
+  </si>
+  <si>
+    <t>Crop 75% height
+Crop to left 4 pixels and right window
 rotate [-0.1, 0.1]</t>
   </si>
 </sst>
@@ -462,10 +467,10 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -782,16 +787,28 @@
       <c r="J10" s="16"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="G11" s="9">
+        <v>60</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="7"/>
       <c r="J11" s="11"/>

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7528DC54-46FA-4B5D-A64A-1DD27F1091CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD36AFA4-0893-4864-814A-CFCE86354866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="645" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -470,7 +470,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -782,10 +782,18 @@
       <c r="G10" s="9">
         <v>60</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="12"/>
+      <c r="H10" s="15">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="I10" s="12">
+        <v>7.7090000000000004E-4</v>
+      </c>
+      <c r="J10" s="16">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="K10" s="12">
+        <v>1.6000000000000001E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD36AFA4-0893-4864-814A-CFCE86354866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB237E5E-06AC-4416-A625-E890229AE231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3750" yWindow="1695" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +140,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0000FF"/>
         <bgColor rgb="FF0000FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -198,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -244,6 +250,21 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -467,10 +488,10 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -551,37 +572,37 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="19">
         <v>1E-4</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="19">
         <v>60</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="20">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="17">
         <v>2.2248E-4</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="21">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="17">
         <v>7.4049999999999995E-4</v>
       </c>
     </row>

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB237E5E-06AC-4416-A625-E890229AE231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1EF1CA-1BE5-42A5-9EB8-5D802CCF51F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="1695" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6795" yWindow="1890" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,10 +488,10 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -838,10 +838,18 @@
       <c r="G11" s="9">
         <v>60</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="7"/>
+      <c r="H11" s="10">
+        <v>0.17630000000000001</v>
+      </c>
+      <c r="I11" s="7">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.1883</v>
+      </c>
+      <c r="K11" s="7">
+        <v>5.0700000000000002E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1EF1CA-1BE5-42A5-9EB8-5D802CCF51F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2E51AC-0E8D-41C9-AB1B-3C4BBED2BB55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6795" yWindow="1890" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,12 +140,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0000FF"/>
         <bgColor rgb="FF0000FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -204,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -250,21 +244,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -488,10 +467,10 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -572,37 +551,37 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="14">
         <v>1E-4</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="14">
         <v>60</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="15">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="12">
         <v>2.2248E-4</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="16">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="12">
         <v>7.4049999999999995E-4</v>
       </c>
     </row>
@@ -628,18 +607,10 @@
       <c r="G5" s="9">
         <v>60</v>
       </c>
-      <c r="H5" s="5">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2.1992E-4</v>
-      </c>
-      <c r="J5" s="6">
-        <v>2.12E-2</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1.4E-3</v>
-      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -663,18 +634,10 @@
       <c r="G6" s="9">
         <v>60</v>
       </c>
-      <c r="H6" s="15">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="I6" s="12">
-        <v>3.1007000000000002E-4</v>
-      </c>
-      <c r="J6" s="16">
-        <v>2.5499999999999998E-2</v>
-      </c>
-      <c r="K6" s="12">
-        <v>1.8E-3</v>
-      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
@@ -698,18 +661,10 @@
       <c r="G7" s="9">
         <v>60</v>
       </c>
-      <c r="H7" s="10">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2.4753999999999998E-4</v>
-      </c>
-      <c r="J7" s="11">
-        <v>1.8800000000000001E-2</v>
-      </c>
-      <c r="K7" s="7">
-        <v>8.6198999999999998E-4</v>
-      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -733,18 +688,10 @@
       <c r="G8" s="9">
         <v>60</v>
       </c>
-      <c r="H8" s="10">
-        <v>5.0200000000000002E-2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1.03E-2</v>
-      </c>
-      <c r="J8" s="11">
-        <v>6.0199999999999997E-2</v>
-      </c>
-      <c r="K8" s="7">
-        <v>1.61E-2</v>
-      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -768,18 +715,10 @@
       <c r="G9" s="9">
         <v>60</v>
       </c>
-      <c r="H9" s="5">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="I9" s="2">
-        <v>3.8636999999999998E-4</v>
-      </c>
-      <c r="J9" s="6">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1.1000000000000001E-3</v>
-      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
@@ -803,18 +742,10 @@
       <c r="G10" s="9">
         <v>60</v>
       </c>
-      <c r="H10" s="15">
-        <v>1.8800000000000001E-2</v>
-      </c>
-      <c r="I10" s="12">
-        <v>7.7090000000000004E-4</v>
-      </c>
-      <c r="J10" s="16">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="K10" s="12">
-        <v>1.6000000000000001E-3</v>
-      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -838,18 +769,10 @@
       <c r="G11" s="9">
         <v>60</v>
       </c>
-      <c r="H11" s="10">
-        <v>0.17630000000000001</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4.3400000000000001E-2</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0.1883</v>
-      </c>
-      <c r="K11" s="7">
-        <v>5.0700000000000002E-2</v>
-      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2E51AC-0E8D-41C9-AB1B-3C4BBED2BB55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ABDFC3-591C-4F46-8B1D-B55E9B8B2FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="1890" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6690" yWindow="420" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -470,7 +470,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -607,10 +607,18 @@
       <c r="G5" s="9">
         <v>60</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="2"/>
+      <c r="H5" s="5">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4.5103999999999999E-4</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1.6999999999999999E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -634,10 +642,18 @@
       <c r="G6" s="9">
         <v>60</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="12"/>
+      <c r="H6" s="15">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="I6" s="12">
+        <v>3.1007000000000002E-4</v>
+      </c>
+      <c r="J6" s="16">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1.8E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
@@ -661,10 +677,18 @@
       <c r="G7" s="9">
         <v>60</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="7"/>
+      <c r="H7" s="10">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2.4753999999999998E-4</v>
+      </c>
+      <c r="J7" s="11">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="K7" s="7">
+        <v>8.6198999999999998E-4</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -688,10 +712,18 @@
       <c r="G8" s="9">
         <v>60</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="7"/>
+      <c r="H8" s="10">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1.03E-2</v>
+      </c>
+      <c r="J8" s="11">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1.61E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -715,10 +747,18 @@
       <c r="G9" s="9">
         <v>60</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="2"/>
+      <c r="H9" s="5">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3.8636999999999998E-4</v>
+      </c>
+      <c r="J9" s="6">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1.1000000000000001E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
@@ -742,10 +782,18 @@
       <c r="G10" s="9">
         <v>60</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="12"/>
+      <c r="H10" s="15">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="I10" s="12">
+        <v>7.7090000000000004E-4</v>
+      </c>
+      <c r="J10" s="16">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="K10" s="12">
+        <v>1.6000000000000001E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -769,10 +817,18 @@
       <c r="G11" s="9">
         <v>60</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="7"/>
+      <c r="H11" s="10">
+        <v>0.17630000000000001</v>
+      </c>
+      <c r="I11" s="7">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.1883</v>
+      </c>
+      <c r="K11" s="7">
+        <v>5.0700000000000002E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ABDFC3-591C-4F46-8B1D-B55E9B8B2FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52872F8-6913-4F14-AFF0-5A649ACFC75C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6690" yWindow="420" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +140,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0000FF"/>
         <bgColor rgb="FF0000FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -198,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -244,6 +250,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,7 +485,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -642,16 +657,16 @@
       <c r="G6" s="9">
         <v>60</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="17">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="18">
         <v>3.1007000000000002E-4</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="19">
         <v>2.5499999999999998E-2</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="18">
         <v>1.8E-3</v>
       </c>
     </row>
@@ -677,16 +692,16 @@
       <c r="G7" s="9">
         <v>60</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="17">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="18">
         <v>2.4753999999999998E-4</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="19">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="18">
         <v>8.6198999999999998E-4</v>
       </c>
     </row>
@@ -712,16 +727,16 @@
       <c r="G8" s="9">
         <v>60</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="17">
         <v>5.0200000000000002E-2</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="18">
         <v>1.03E-2</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="19">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="18">
         <v>1.61E-2</v>
       </c>
     </row>
@@ -747,16 +762,16 @@
       <c r="G9" s="9">
         <v>60</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="17">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="18">
         <v>3.8636999999999998E-4</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="19">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="18">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -782,16 +797,16 @@
       <c r="G10" s="9">
         <v>60</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="17">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="18">
         <v>7.7090000000000004E-4</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="19">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="18">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -817,16 +832,16 @@
       <c r="G11" s="9">
         <v>60</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="17">
         <v>0.17630000000000001</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="18">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="19">
         <v>0.1883</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="18">
         <v>5.0700000000000002E-2</v>
       </c>
     </row>

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52872F8-6913-4F14-AFF0-5A649ACFC75C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCAD624-F3D3-4A82-80EE-D548CC4382F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="420" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5805" yWindow="1305" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +148,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -204,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -259,6 +265,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -485,7 +500,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -657,17 +672,17 @@
       <c r="G6" s="9">
         <v>60</v>
       </c>
-      <c r="H6" s="17">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="I6" s="18">
-        <v>3.1007000000000002E-4</v>
-      </c>
-      <c r="J6" s="19">
-        <v>2.5499999999999998E-2</v>
-      </c>
-      <c r="K6" s="18">
-        <v>1.8E-3</v>
+      <c r="H6" s="20">
+        <v>1.44E-2</v>
+      </c>
+      <c r="I6" s="21">
+        <v>3.3280000000000001E-4</v>
+      </c>
+      <c r="J6" s="22">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="K6" s="21">
+        <v>8.8982000000000004E-4</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCAD624-F3D3-4A82-80EE-D548CC4382F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9EA16E-6108-4093-936E-8120AC345829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5805" yWindow="1305" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5670" yWindow="3300" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -500,7 +500,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -707,17 +707,17 @@
       <c r="G7" s="9">
         <v>60</v>
       </c>
-      <c r="H7" s="17">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="I7" s="18">
-        <v>2.4753999999999998E-4</v>
-      </c>
-      <c r="J7" s="19">
-        <v>1.8800000000000001E-2</v>
-      </c>
-      <c r="K7" s="18">
-        <v>8.6198999999999998E-4</v>
+      <c r="H7" s="20">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="I7" s="21">
+        <v>2.8005E-4</v>
+      </c>
+      <c r="J7" s="22">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="K7" s="21">
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9EA16E-6108-4093-936E-8120AC345829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4829C9-A81F-45F4-B724-8A43F9588E48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="3300" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10455" yWindow="690" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,10 +497,10 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -742,17 +742,17 @@
       <c r="G8" s="9">
         <v>60</v>
       </c>
-      <c r="H8" s="17">
-        <v>5.0200000000000002E-2</v>
-      </c>
-      <c r="I8" s="18">
-        <v>1.03E-2</v>
-      </c>
-      <c r="J8" s="19">
-        <v>6.0199999999999997E-2</v>
-      </c>
-      <c r="K8" s="18">
-        <v>1.61E-2</v>
+      <c r="H8" s="20">
+        <v>1.26E-2</v>
+      </c>
+      <c r="I8" s="21">
+        <v>2.9486999999999997E-4</v>
+      </c>
+      <c r="J8" s="22">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="K8" s="21">
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4829C9-A81F-45F4-B724-8A43F9588E48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1298147A-DA13-4BB3-800F-542EDCF8880A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10455" yWindow="690" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10755" yWindow="825" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,10 +497,10 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -777,17 +777,17 @@
       <c r="G9" s="9">
         <v>60</v>
       </c>
-      <c r="H9" s="17">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="I9" s="18">
-        <v>3.8636999999999998E-4</v>
-      </c>
-      <c r="J9" s="19">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="K9" s="18">
-        <v>1.1000000000000001E-3</v>
+      <c r="H9" s="20">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="I9" s="21">
+        <v>4.2848000000000002E-4</v>
+      </c>
+      <c r="J9" s="22">
+        <v>2.06E-2</v>
+      </c>
+      <c r="K9" s="21">
+        <v>8.3062000000000001E-4</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1298147A-DA13-4BB3-800F-542EDCF8880A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76FAE6D-8986-4007-AE49-6699412DFFE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10755" yWindow="825" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10950" yWindow="1425" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -500,7 +500,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -812,17 +812,17 @@
       <c r="G10" s="9">
         <v>60</v>
       </c>
-      <c r="H10" s="17">
-        <v>1.8800000000000001E-2</v>
-      </c>
-      <c r="I10" s="18">
-        <v>7.7090000000000004E-4</v>
-      </c>
-      <c r="J10" s="19">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="K10" s="18">
-        <v>1.6000000000000001E-3</v>
+      <c r="H10" s="20">
+        <v>1.52E-2</v>
+      </c>
+      <c r="I10" s="21">
+        <v>3.6146000000000003E-4</v>
+      </c>
+      <c r="J10" s="22">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="K10" s="21">
+        <v>9.0036999999999995E-4</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76FAE6D-8986-4007-AE49-6699412DFFE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC574E49-9AB3-4918-87B6-FACDD55ACB7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10950" yWindow="1425" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="3180" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -500,7 +500,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -848,16 +848,16 @@
         <v>60</v>
       </c>
       <c r="H11" s="17">
-        <v>0.17630000000000001</v>
+        <v>0.156</v>
       </c>
       <c r="I11" s="18">
-        <v>4.3400000000000001E-2</v>
+        <v>3.5099999999999999E-2</v>
       </c>
       <c r="J11" s="19">
-        <v>0.1883</v>
+        <v>0.1653</v>
       </c>
       <c r="K11" s="18">
-        <v>5.0700000000000002E-2</v>
+        <v>3.9600000000000003E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC574E49-9AB3-4918-87B6-FACDD55ACB7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A891425B-7A30-42C8-AEB4-FA3B92ADAAD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="3180" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12645" yWindow="360" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>Model</t>
   </si>
@@ -104,6 +104,15 @@
     <t>Crop 75% height
 Crop to left 4 pixels and right window
 rotate [-0.1, 0.1]</t>
+  </si>
+  <si>
+    <t>Crop 40% height
+Crop to left and right windows
+rotate [-0.1, 0.1]
+Add 10 pixels of black padding on the right</t>
+  </si>
+  <si>
+    <t>&lt;- Best so far</t>
   </si>
 </sst>
 </file>
@@ -210,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -252,12 +261,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -274,6 +277,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -494,13 +500,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11:K11"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -517,7 +523,7 @@
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -550,7 +556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -565,7 +571,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -580,7 +586,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -605,17 +611,20 @@
       <c r="H4" s="15">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="16">
         <v>2.2248E-4</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="17">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="16">
         <v>7.4049999999999995E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="L4" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -650,7 +659,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -672,20 +681,20 @@
       <c r="G6" s="9">
         <v>60</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="18">
         <v>1.44E-2</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="19">
         <v>3.3280000000000001E-4</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="20">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="19">
         <v>8.8982000000000004E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -707,20 +716,20 @@
       <c r="G7" s="9">
         <v>60</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="18">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="19">
         <v>2.8005E-4</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="20">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="19">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -742,20 +751,20 @@
       <c r="G8" s="9">
         <v>60</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="18">
         <v>1.26E-2</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="19">
         <v>2.9486999999999997E-4</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="20">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="19">
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -777,20 +786,20 @@
       <c r="G9" s="9">
         <v>60</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="18">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="19">
         <v>4.2848000000000002E-4</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="20">
         <v>2.06E-2</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="19">
         <v>8.3062000000000001E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -812,20 +821,20 @@
       <c r="G10" s="9">
         <v>60</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="18">
         <v>1.52E-2</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="19">
         <v>3.6146000000000003E-4</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="20">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="19">
         <v>9.0036999999999995E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -847,35 +856,51 @@
       <c r="G11" s="9">
         <v>60</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="18">
         <v>0.156</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="19">
         <v>3.5099999999999999E-2</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="20">
         <v>0.1653</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="19">
         <v>3.9600000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="7"/>
+      <c r="B12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="G12" s="9">
+        <v>60</v>
+      </c>
+      <c r="H12" s="10">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3.4700000000000002E-2</v>
+      </c>
       <c r="J12" s="11"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -890,7 +915,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A891425B-7A30-42C8-AEB4-FA3B92ADAAD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23207D23-D671-4397-87EC-8E2F374C9685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12645" yWindow="360" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="1860" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>Model</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>&lt;- Best so far</t>
+  </si>
+  <si>
+    <t>x80</t>
   </si>
 </sst>
 </file>
@@ -503,10 +506,10 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -900,16 +903,28 @@
       <c r="J12" s="11"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="B13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="G13" s="9">
+        <v>60</v>
+      </c>
       <c r="H13" s="10"/>
       <c r="I13" s="7"/>
       <c r="J13" s="11"/>

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23207D23-D671-4397-87EC-8E2F374C9685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3CA669-1538-4ACF-BC76-97A1421B7151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="1860" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8490" yWindow="90" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
   <si>
     <t>Model</t>
   </si>
@@ -115,7 +115,14 @@
     <t>&lt;- Best so far</t>
   </si>
   <si>
-    <t>x80</t>
+    <t>x100</t>
+  </si>
+  <si>
+    <t>Adjust y according to the random crop
+Grayscale
+Use both window sides, left &amp; right
+Cut sky and shop
+Quit after 10 epochs of no improvement</t>
   </si>
 </sst>
 </file>
@@ -506,10 +513,10 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -914,7 +921,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>22</v>
@@ -925,10 +932,18 @@
       <c r="G13" s="9">
         <v>60</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="7"/>
+      <c r="H13" s="10">
+        <v>1.15E-2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2.4080999999999999E-4</v>
+      </c>
+      <c r="J13" s="11">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="K13" s="7">
+        <v>2E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3CA669-1538-4ACF-BC76-97A1421B7151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9781C034-009D-4C35-8ED2-AC0A7EC5A704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8490" yWindow="90" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="5730" windowWidth="20415" windowHeight="7500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>Model</t>
   </si>
@@ -123,6 +123,22 @@
 Use both window sides, left &amp; right
 Cut sky and shop
 Quit after 10 epochs of no improvement</t>
+  </si>
+  <si>
+    <t>0.018
+0.0328</t>
+  </si>
+  <si>
+    <t>0.0007405
+0.0031</t>
+  </si>
+  <si>
+    <t>0.0116
+0.0205</t>
+  </si>
+  <si>
+    <t>0.00022248
+0.00072145</t>
   </si>
 </sst>
 </file>
@@ -271,26 +287,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,10 +529,10 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -618,19 +634,19 @@
       <c r="G4" s="14">
         <v>60</v>
       </c>
-      <c r="H4" s="15">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="I4" s="16">
-        <v>2.2248E-4</v>
-      </c>
-      <c r="J4" s="17">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="K4" s="16">
-        <v>7.4049999999999995E-4</v>
-      </c>
-      <c r="L4" s="21" t="s">
+      <c r="H4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -691,16 +707,16 @@
       <c r="G6" s="9">
         <v>60</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="15">
         <v>1.44E-2</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="16">
         <v>3.3280000000000001E-4</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="17">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="16">
         <v>8.8982000000000004E-4</v>
       </c>
     </row>
@@ -726,16 +742,16 @@
       <c r="G7" s="9">
         <v>60</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="15">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="16">
         <v>2.8005E-4</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="17">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="16">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
@@ -761,16 +777,16 @@
       <c r="G8" s="9">
         <v>60</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="15">
         <v>1.26E-2</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="16">
         <v>2.9486999999999997E-4</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="17">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="16">
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
@@ -796,16 +812,16 @@
       <c r="G9" s="9">
         <v>60</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="15">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="16">
         <v>4.2848000000000002E-4</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="17">
         <v>2.06E-2</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="16">
         <v>8.3062000000000001E-4</v>
       </c>
     </row>
@@ -831,16 +847,16 @@
       <c r="G10" s="9">
         <v>60</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="15">
         <v>1.52E-2</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="16">
         <v>3.6146000000000003E-4</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="17">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="16">
         <v>9.0036999999999995E-4</v>
       </c>
     </row>
@@ -866,16 +882,16 @@
       <c r="G11" s="9">
         <v>60</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="15">
         <v>0.156</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="16">
         <v>3.5099999999999999E-2</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="17">
         <v>0.1653</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="16">
         <v>3.9600000000000003E-2</v>
       </c>
     </row>

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9781C034-009D-4C35-8ED2-AC0A7EC5A704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF9DB06-0EBF-447C-A938-490F4F2E6214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="5730" windowWidth="20415" windowHeight="7500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1605" yWindow="2355" windowWidth="21930" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>Model</t>
   </si>
@@ -110,9 +110,6 @@
 Crop to left and right windows
 rotate [-0.1, 0.1]
 Add 10 pixels of black padding on the right</t>
-  </si>
-  <si>
-    <t>&lt;- Best so far</t>
   </si>
   <si>
     <t>x100</t>
@@ -245,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -299,14 +296,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,7 +541,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -634,55 +643,53 @@
       <c r="G4" s="14">
         <v>60</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="23">
         <v>1E-4</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="23">
         <v>60</v>
       </c>
-      <c r="H5" s="5">
-        <v>1.7100000000000001E-2</v>
-      </c>
-      <c r="I5" s="2">
-        <v>4.5103999999999999E-4</v>
-      </c>
-      <c r="J5" s="6">
-        <v>2.4899999999999999E-2</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1.6999999999999999E-3</v>
+      <c r="H5" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I5" s="22">
+        <v>1.9338999999999999E-4</v>
+      </c>
+      <c r="J5" s="25">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="K5" s="22">
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
@@ -937,10 +944,10 @@
         <v>15</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="9">
         <v>1E-4</v>

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF9DB06-0EBF-447C-A938-490F4F2E6214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8F028D-3572-4967-88E7-AB343821D501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="2355" windowWidth="21930" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -658,7 +658,7 @@
       <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -731,35 +731,35 @@
       <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="14">
         <v>1E-4</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="14">
         <v>60</v>
       </c>
-      <c r="H7" s="15">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="I7" s="16">
-        <v>2.8005E-4</v>
-      </c>
-      <c r="J7" s="17">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="K7" s="16">
-        <v>1.1000000000000001E-3</v>
+      <c r="H7" s="20">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="I7" s="13">
+        <v>6.0917000000000002E-4</v>
+      </c>
+      <c r="J7" s="21">
+        <v>2.75E-2</v>
+      </c>
+      <c r="K7" s="13">
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">

--- a/tensorflow/columns_experiment/TrainingComparison.xlsx
+++ b/tensorflow/columns_experiment/TrainingComparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gen Nishida\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\taiga\Documents\GitHub\FacadeAnnotationTool\tensorflow\columns_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8F028D-3572-4967-88E7-AB343821D501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AFA393-9766-4FC6-9304-024124868D10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4665" yWindow="870" windowWidth="18135" windowHeight="5700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -538,10 +538,10 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
